--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_12_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_12_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2350921.348866669</v>
+        <v>2346784.191616517</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9478451.173900183</v>
+        <v>9478451.173900181</v>
       </c>
     </row>
     <row r="11">
@@ -661,10 +661,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -673,13 +673,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>297.6465599307828</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,19 +715,19 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>41.01934329486801</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>136.8917226135565</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>112.1002968312449</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -870,16 +870,16 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -901,19 +901,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>49.83235651299567</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>68.44930230753123</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>116.7933546766182</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>145.8489934020556</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1138,16 +1138,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>23.17105154807194</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>291.0014662643711</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1299,19 +1299,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>15.53666026283998</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>185.7059620176638</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>152.2372717916099</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>160.9888698962426</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1773,19 +1773,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>118.4312223122543</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1903,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2061,7 +2061,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>132.7328787290201</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>108.5813113004299</v>
       </c>
     </row>
     <row r="20">
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2244,13 +2244,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,19 +2295,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>278.7019488598318</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2320,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710066</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,13 +2481,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>79.90816078629015</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2721,19 +2721,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>31.26260713376574</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>211.4959438384091</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2955,10 +2955,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>71.22475183605047</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3040,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417105</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3189,16 +3189,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812011</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3243,13 +3243,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>140.1760114441845</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.7025149569541</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>70.58974991479204</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3663,13 +3663,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>147.6895341487364</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>144.6100405317611</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3802,7 +3802,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3957,7 +3957,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>211.8172046759422</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4137,10 +4137,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>105.9893107373036</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>136.6755965411349</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>826.0776793172992</v>
+        <v>1842.294639468329</v>
       </c>
       <c r="C2" t="n">
-        <v>826.0776793172992</v>
+        <v>1473.332122527917</v>
       </c>
       <c r="D2" t="n">
-        <v>826.0776793172992</v>
+        <v>1115.066423921167</v>
       </c>
       <c r="E2" t="n">
-        <v>440.2894267190549</v>
+        <v>729.2781713229224</v>
       </c>
       <c r="F2" t="n">
-        <v>433.3439259698515</v>
+        <v>722.3326705737189</v>
       </c>
       <c r="G2" t="n">
         <v>421.6795797345444</v>
@@ -4330,13 +4330,13 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4360,22 +4360,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.31341879663</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="V2" t="n">
-        <v>1644.250531453059</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="W2" t="n">
-        <v>1644.250531453059</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="X2" t="n">
-        <v>1602.816851357233</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="Y2" t="n">
-        <v>1212.677519381421</v>
+        <v>2228.894479532451</v>
       </c>
     </row>
     <row r="3">
@@ -4403,34 +4403,34 @@
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735141</v>
+        <v>482.9033490193026</v>
       </c>
       <c r="L3" t="n">
-        <v>854.8429682049857</v>
+        <v>777.6069060507743</v>
       </c>
       <c r="M3" t="n">
-        <v>1218.104987164206</v>
+        <v>1140.868925009994</v>
       </c>
       <c r="N3" t="n">
-        <v>1605.390115761151</v>
+        <v>1528.15405360694</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>1860.224488783102</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>736.3507539869237</v>
+        <v>977.1399948936612</v>
       </c>
       <c r="C4" t="n">
-        <v>736.3507539869237</v>
+        <v>977.1399948936612</v>
       </c>
       <c r="D4" t="n">
-        <v>586.2341145745879</v>
+        <v>977.1399948936612</v>
       </c>
       <c r="E4" t="n">
-        <v>438.3210209921948</v>
+        <v>977.1399948936612</v>
       </c>
       <c r="F4" t="n">
-        <v>325.0883979303312</v>
+        <v>977.1399948936612</v>
       </c>
       <c r="G4" t="n">
-        <v>157.1019332386098</v>
+        <v>977.1399948936612</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>977.1399948936612</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936612</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>1002.60916787878</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>1174.299679627706</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>1449.530858294981</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>1750.112669035317</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>2048.981932571481</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>2309.019775324693</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>2508.006390496682</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S4" t="n">
-        <v>1439.817372234358</v>
+        <v>2365.710580560017</v>
       </c>
       <c r="T4" t="n">
-        <v>1439.817372234358</v>
+        <v>2142.732099754752</v>
       </c>
       <c r="U4" t="n">
-        <v>1439.817372234358</v>
+        <v>1853.61376225859</v>
       </c>
       <c r="V4" t="n">
-        <v>1185.132884028471</v>
+        <v>1853.61376225859</v>
       </c>
       <c r="W4" t="n">
-        <v>1185.132884028471</v>
+        <v>1564.196592221629</v>
       </c>
       <c r="X4" t="n">
-        <v>957.1433331304538</v>
+        <v>1336.207041323612</v>
       </c>
       <c r="Y4" t="n">
-        <v>736.3507539869237</v>
+        <v>1115.414462180082</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1532.706951134003</v>
+        <v>1201.12525314008</v>
       </c>
       <c r="C5" t="n">
-        <v>1163.744434193592</v>
+        <v>832.1627361996682</v>
       </c>
       <c r="D5" t="n">
-        <v>1163.744434193592</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="E5" t="n">
-        <v>777.9561815953474</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F5" t="n">
-        <v>771.0106808461439</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G5" t="n">
-        <v>355.3059305704328</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362819</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.89447953245</v>
+        <v>2512.003614750665</v>
       </c>
       <c r="U5" t="n">
-        <v>1975.31341879663</v>
+        <v>2258.422554014845</v>
       </c>
       <c r="V5" t="n">
-        <v>1975.31341879663</v>
+        <v>1927.359666671274</v>
       </c>
       <c r="W5" t="n">
-        <v>1906.172709395083</v>
+        <v>1574.59101140116</v>
       </c>
       <c r="X5" t="n">
-        <v>1532.706951134003</v>
+        <v>1201.12525314008</v>
       </c>
       <c r="Y5" t="n">
-        <v>1532.706951134003</v>
+        <v>1201.12525314008</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
         <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>423.1489515180662</v>
+        <v>590.2049751143493</v>
       </c>
       <c r="L6" t="n">
-        <v>717.8525085495379</v>
+        <v>884.908532145821</v>
       </c>
       <c r="M6" t="n">
-        <v>1352.031492328576</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N6" t="n">
-        <v>1739.316620925522</v>
+        <v>1635.455679701986</v>
       </c>
       <c r="O6" t="n">
-        <v>2071.387056101683</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P6" t="n">
-        <v>2318.56978993398</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>496.1664670606423</v>
+        <v>643.4886826182743</v>
       </c>
       <c r="C7" t="n">
-        <v>496.1664670606423</v>
+        <v>643.4886826182743</v>
       </c>
       <c r="D7" t="n">
-        <v>346.0498276483066</v>
+        <v>493.3720432059386</v>
       </c>
       <c r="E7" t="n">
-        <v>198.1367340659135</v>
+        <v>345.4589496235454</v>
       </c>
       <c r="F7" t="n">
-        <v>51.2467865680031</v>
+        <v>198.5690021256351</v>
       </c>
       <c r="G7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020476</v>
@@ -4749,28 +4749,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T7" t="n">
-        <v>1413.467639269233</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U7" t="n">
-        <v>1124.349301773071</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V7" t="n">
-        <v>1124.349301773071</v>
+        <v>825.137147448514</v>
       </c>
       <c r="W7" t="n">
-        <v>834.93213173611</v>
+        <v>825.137147448514</v>
       </c>
       <c r="X7" t="n">
-        <v>834.93213173611</v>
+        <v>825.137147448514</v>
       </c>
       <c r="Y7" t="n">
-        <v>614.1395525925799</v>
+        <v>825.137147448514</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>901.3425442071318</v>
+        <v>1500.227517577122</v>
       </c>
       <c r="C8" t="n">
-        <v>901.3425442071318</v>
+        <v>1500.227517577122</v>
       </c>
       <c r="D8" t="n">
-        <v>901.3425442071318</v>
+        <v>1141.961818970371</v>
       </c>
       <c r="E8" t="n">
-        <v>877.9374416333218</v>
+        <v>756.173566372127</v>
       </c>
       <c r="F8" t="n">
-        <v>466.9515368437142</v>
+        <v>345.1876615825194</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872913</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723849</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926624</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.894479532449</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="U8" t="n">
-        <v>1975.313418796628</v>
+        <v>2184.059060190807</v>
       </c>
       <c r="V8" t="n">
-        <v>1644.250531453058</v>
+        <v>1852.996172847236</v>
       </c>
       <c r="W8" t="n">
-        <v>1291.481876182944</v>
+        <v>1500.227517577122</v>
       </c>
       <c r="X8" t="n">
-        <v>1291.481876182944</v>
+        <v>1500.227517577122</v>
       </c>
       <c r="Y8" t="n">
-        <v>901.3425442071318</v>
+        <v>1500.227517577122</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966375</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155105</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542593</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488038</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756888</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182509</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057791</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800201</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500102</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>560.1394111735129</v>
+        <v>560.1394111735143</v>
       </c>
       <c r="L9" t="n">
-        <v>854.8429682049846</v>
+        <v>854.8429682049862</v>
       </c>
       <c r="M9" t="n">
-        <v>1218.104987164204</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N9" t="n">
-        <v>1605.390115761149</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O9" t="n">
-        <v>1967.526114878147</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P9" t="n">
-        <v>2214.708848710444</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676481</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.617474780095</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610846175225</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368633815394</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087192</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881659</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519478116706</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>514.036292340028</v>
+        <v>172.7955294637007</v>
       </c>
       <c r="C10" t="n">
-        <v>514.036292340028</v>
+        <v>172.7955294637007</v>
       </c>
       <c r="D10" t="n">
-        <v>514.036292340028</v>
+        <v>172.7955294637007</v>
       </c>
       <c r="E10" t="n">
-        <v>366.1231987576348</v>
+        <v>172.7955294637007</v>
       </c>
       <c r="F10" t="n">
-        <v>219.2332512597245</v>
+        <v>172.7955294637007</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800308</v>
+        <v>172.7955294637007</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800308</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312193</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S10" t="n">
-        <v>1439.817372234358</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T10" t="n">
-        <v>1252.235592418536</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="U10" t="n">
-        <v>1252.235592418536</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V10" t="n">
-        <v>1252.235592418536</v>
+        <v>1092.643294372449</v>
       </c>
       <c r="W10" t="n">
-        <v>962.8184223815755</v>
+        <v>803.2261243354878</v>
       </c>
       <c r="X10" t="n">
-        <v>734.8288714835581</v>
+        <v>575.2365734374705</v>
       </c>
       <c r="Y10" t="n">
-        <v>514.036292340028</v>
+        <v>354.4439942939404</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5038,13 +5038,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5053,7 +5053,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5068,25 +5068,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5117,25 +5117,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>172.349019141113</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>506.2737913123336</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>506.2737913123336</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M12" t="n">
-        <v>1103.652278938886</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N12" t="n">
-        <v>1731.250242493492</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
         <v>2283.159972732779</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>929.7309773356195</v>
+        <v>916.3099000622266</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U13" t="n">
-        <v>1814.846060413294</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V13" t="n">
-        <v>1560.161572207407</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W13" t="n">
-        <v>1560.161572207407</v>
+        <v>1546.740494934014</v>
       </c>
       <c r="X13" t="n">
-        <v>1332.172021309389</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y13" t="n">
-        <v>1111.379442165859</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
     <row r="14">
@@ -5269,34 +5269,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C15" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D15" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G15" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>2231.588527385791</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>2565.513299557012</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>3060.83890577277</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M15" t="n">
-        <v>3658.217393399322</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N15" t="n">
-        <v>3869.022106831312</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O15" t="n">
-        <v>4420.931837070599</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P15" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S15" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T15" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U15" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V15" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W15" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X15" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y15" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>923.4916164683283</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>754.5554335404214</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>604.4387941280856</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>923.4916164683283</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5518,7 +5518,7 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5533,7 +5533,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1731.250242493492</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>634.4644740681603</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C19" t="n">
-        <v>465.5282911402533</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D19" t="n">
-        <v>465.5282911402533</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E19" t="n">
-        <v>317.6151975578602</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578602</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V19" t="n">
-        <v>1554.312238976908</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W19" t="n">
-        <v>1264.895068939947</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X19" t="n">
-        <v>1036.90551804193</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y19" t="n">
-        <v>816.1129388984</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="20">
@@ -5740,7 +5740,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5749,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,10 +5764,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C21" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D21" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>2715.159942084666</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>2715.159942084666</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>3087.702309109632</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>3715.300272664238</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>4267.210002903525</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S21" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T21" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U21" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V21" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W21" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X21" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y21" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263526</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356194</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1762.98966419767</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1508.305175991783</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1508.305175991783</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>1280.315625093766</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5965,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6004,37 +6004,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
@@ -6074,19 +6074,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>746.8882603249853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1344.266747951537</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951537</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3342.537229081859</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>3173.601046153952</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>3023.484406741616</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>2875.571313159223</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>4404.185983673937</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>4115.110757018135</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>4034.395443092589</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>3744.978273055629</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>3744.978273055629</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>3524.185693912098</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6214,40 +6214,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>448.1846595309957</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>943.5102657467545</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1540.888753373306</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1540.888753373306</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>701.4712640439268</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C28" t="n">
-        <v>532.5350811160199</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D28" t="n">
-        <v>382.4184417036842</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E28" t="n">
-        <v>382.4184417036842</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2415.384692536053</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2415.384692536053</v>
       </c>
       <c r="T28" t="n">
-        <v>1983.430278984124</v>
+        <v>2415.384692536053</v>
       </c>
       <c r="U28" t="n">
-        <v>1694.355052328322</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="V28" t="n">
-        <v>1439.670564122435</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W28" t="n">
-        <v>1150.253394085474</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X28" t="n">
-        <v>922.2638431874569</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y28" t="n">
-        <v>701.4712640439268</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="29">
@@ -6451,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6478,34 +6478,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6536,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1140.291933891999</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>1767.889897446606</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3195.647281583947</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>3026.711098656041</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>2876.594459243705</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>2728.681365661312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376192</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.77343521839</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.932614305899</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.33114932884</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>4149.386955555052</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>3894.702467349165</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>3605.285297312204</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>3377.295746414187</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>3377.295746414187</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6715,7 +6715,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6727,25 +6727,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
@@ -6788,13 +6788,13 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1577.52840832642</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3194.624135499465</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>3025.687952571559</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D34" t="n">
-        <v>2875.571313159223</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E34" t="n">
-        <v>2875.571313159223</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F34" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>4079.73921857714</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>3825.054730371253</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>3825.054730371253</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>3597.065179473235</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>3376.272600329705</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6931,7 +6931,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192599</v>
@@ -6958,7 +6958,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>710.2486053718725</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1307.627092998424</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>733.4550657171301</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>564.5188827892232</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>414.4022433768874</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>414.4022433768874</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7125,22 +7125,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7162,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C39" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D39" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G39" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>2715.159942084666</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>3210.485548300425</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>3639.612039348919</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>4267.210002903525</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>4267.210002903525</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S39" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T39" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U39" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V39" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W39" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X39" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y39" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="40">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>550.637687073287</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C40" t="n">
-        <v>550.637687073287</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D40" t="n">
-        <v>550.637687073287</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7359,25 +7359,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2233.846631820783</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2014.245166843724</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1725.169940187922</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V40" t="n">
-        <v>1470.485451982035</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W40" t="n">
-        <v>1181.068281945074</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X40" t="n">
-        <v>953.0787310470569</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y40" t="n">
-        <v>732.2861519035267</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="41">
@@ -7408,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7450,10 +7450,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7493,25 +7493,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>506.2737913123336</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1103.652278938886</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>1731.250242493492</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>554.5813165460164</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>385.6451336181095</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7605,16 +7605,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1474.429081454764</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1185.011911417804</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>957.0223605197863</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>736.2297813762561</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7636,31 +7636,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7669,7 +7669,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C45" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D45" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>2233.355914590558</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>2383.002557118213</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>2383.002557118213</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L45" t="n">
-        <v>2453.684166529967</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M45" t="n">
-        <v>3051.062654156519</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>3678.660617711126</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>4230.570347950413</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S45" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T45" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U45" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V45" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W45" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X45" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y45" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263527</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2272.857469997003</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2272.857469997003</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1983.7822433412</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1729.097755135313</v>
+        <v>1617.375399479945</v>
       </c>
       <c r="W46" t="n">
-        <v>1729.097755135313</v>
+        <v>1327.958229442984</v>
       </c>
       <c r="X46" t="n">
-        <v>1501.108204237296</v>
+        <v>1099.968678544967</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>879.1760994014371</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>186.4490126143851</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8072,16 +8072,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>265.0304328515151</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8297,13 +8297,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>168.7434581780638</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>273.6534998179982</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8315,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>129.7511347056855</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8546,16 +8546,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>30.36925650589524</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>265.0304328515136</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9418,7 +9418,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>-7.50022678360063e-13</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>15.00954930701795</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23430,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23466,19 +23466,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>125.1956044930016</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>28.00274033431484</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>65.54986409393024</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>119.4047645948079</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>110.0033420516649</v>
       </c>
     </row>
     <row r="20">
@@ -24132,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,19 +24183,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>7.482525529412385</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24369,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,22 +24414,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>172.2294825375378</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24609,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>35.11263957635595</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>5.909506488879117</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24843,10 +24843,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>214.9597225531937</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25077,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25131,13 +25131,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>146.0084629450596</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>74.83129810813921</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25551,13 +25551,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0.9259388694759139</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,13 +25599,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>36.41624546988348</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,10 +25800,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>40.32043864788577</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26025,10 +26025,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>75.03697526434104</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>115.4620467826931</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>835491.4104457165</v>
+        <v>835491.4104457163</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>814465.9272701541</v>
+        <v>814465.927270154</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>814465.927270154</v>
+        <v>814465.9272701541</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>814465.9272701541</v>
+        <v>814465.927270154</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>814465.9272701541</v>
+        <v>814465.927270154</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>814465.9272701541</v>
+        <v>814465.927270154</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>814465.9272701541</v>
+        <v>814465.927270154</v>
       </c>
     </row>
     <row r="14">
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982126</v>
+        <v>615781.3273982127</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982126</v>
+        <v>615781.3273982129</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982124</v>
+        <v>615781.3273982132</v>
       </c>
       <c r="E2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="F2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="G2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="H2" t="n">
         <v>605359.9497675042</v>
@@ -26337,22 +26337,22 @@
         <v>605359.9497675042</v>
       </c>
       <c r="J2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="K2" t="n">
         <v>605359.9497675044</v>
       </c>
       <c r="L2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="M2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="N2" t="n">
-        <v>605359.949767504</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="O2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675046</v>
       </c>
       <c r="P2" t="n">
         <v>605359.9497675045</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245461</v>
+        <v>507485.4416245458</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,10 +26383,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="J3" t="n">
         <v>167605.1778099826</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289268</v>
+        <v>132607.2937289266</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,40 +26417,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>134318.0002618638</v>
+        <v>134318.0002618637</v>
       </c>
       <c r="C4" t="n">
         <v>134318.0002618637</v>
       </c>
       <c r="D4" t="n">
-        <v>134318.0002618638</v>
+        <v>134318.0002618637</v>
       </c>
       <c r="E4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426732044</v>
       </c>
       <c r="F4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731975</v>
       </c>
       <c r="G4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="H4" t="n">
-        <v>8117.312426731947</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="I4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426732016</v>
       </c>
       <c r="J4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="K4" t="n">
-        <v>8117.312426732036</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="L4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426732015</v>
       </c>
       <c r="M4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426732028</v>
       </c>
       <c r="N4" t="n">
         <v>8117.312426731974</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984469</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-726226.2288794152</v>
+        <v>-726226.2288794155</v>
       </c>
       <c r="C6" t="n">
-        <v>388525.554696504</v>
+        <v>388525.5546965044</v>
       </c>
       <c r="D6" t="n">
-        <v>388525.5546965043</v>
+        <v>388525.5546965048</v>
       </c>
       <c r="E6" t="n">
-        <v>-11365.33410768081</v>
+        <v>-11712.71336203764</v>
       </c>
       <c r="F6" t="n">
-        <v>496120.1075168654</v>
+        <v>495772.7282625081</v>
       </c>
       <c r="G6" t="n">
-        <v>496120.1075168651</v>
+        <v>495772.7282625085</v>
       </c>
       <c r="H6" t="n">
-        <v>496120.1075168651</v>
+        <v>495772.7282625082</v>
       </c>
       <c r="I6" t="n">
-        <v>496120.1075168652</v>
+        <v>495772.7282625082</v>
       </c>
       <c r="J6" t="n">
-        <v>328514.9297068827</v>
+        <v>328167.5504525255</v>
       </c>
       <c r="K6" t="n">
-        <v>496120.1075168654</v>
+        <v>495772.7282625083</v>
       </c>
       <c r="L6" t="n">
-        <v>496120.1075168654</v>
+        <v>495772.7282625083</v>
       </c>
       <c r="M6" t="n">
-        <v>363512.8137879386</v>
+        <v>363165.4345335816</v>
       </c>
       <c r="N6" t="n">
-        <v>496120.107516865</v>
+        <v>495772.7282625083</v>
       </c>
       <c r="O6" t="n">
-        <v>496120.1075168653</v>
+        <v>495772.7282625086</v>
       </c>
       <c r="P6" t="n">
-        <v>496120.1075168654</v>
+        <v>495772.7282625085</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>4.266319098766464e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>4.266319098766464e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>4.266319098766464e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26718,7 +26718,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>4.266319098766464e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
-        <v>934.064892117539</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26792,10 +26792,10 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000385</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>4.266319098766464e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26928,7 +26928,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241348</v>
+        <v>433.9106082241345</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.266319098766464e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27165,7 +27165,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,10 +27381,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27393,7 +27393,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>113.9011428421712</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27435,19 +27435,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>328.711757383601</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>42.94025756838076</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>33.3207511916863</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27590,16 +27590,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27621,19 +27621,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>65.70991267247047</v>
@@ -27666,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>156.8258284672381</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>280.7916664098818</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>63.03862550531906</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27788,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>20.45760664274854</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551288</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27858,22 +27858,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>358.7593185241898</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>120.5462365085829</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247052</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28019,19 +28019,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>131.7148488922889</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,16 +28061,16 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>35.0427339795481</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28104,7 +28104,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1.502430364027909e-12</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -29040,7 +29040,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -29580,7 +29580,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -29760,7 +29760,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -30036,7 +30036,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336177</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342222</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745095</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744846</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347159</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178437</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040587</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.538811676207</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405673</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378624</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,31 +31673,31 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654578</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227907</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849626</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759584</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.19689343106956</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>204.3779992811859</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>583.1096135868572</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>344.2757660550399</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32311,13 +32311,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32326,7 +32326,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>191.332301678856</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32335,10 +32335,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,22 +32554,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>518.4394551593568</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32791,37 +32791,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>309.7666854143572</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>342.8454457931489</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33204,7 +33204,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33268,10 +33268,10 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>710.7237876039896</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33283,7 +33283,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33508,16 +33508,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>650.2626573149953</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33739,28 +33739,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>608.2694430035901</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33982,16 +33982,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>575.5951359912035</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34213,13 +34213,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>402.2342772868842</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34231,10 +34231,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34450,10 +34450,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L45" t="n">
-        <v>209.9499448422519</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34465,13 +34465,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>373.0365088578699</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>600.455114847638</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35017,13 +35017,13 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>355.3309544215487</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>640.5848321000387</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
         <v>391.197099592874</v>
@@ -35035,10 +35035,10 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>246.2318570365401</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407336</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376313</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939898</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091737</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560633</v>
+        <v>451.0527332560635</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928738</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>365.7939385020181</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>514.709961975046</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
-        <v>24.5838886097709</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870591</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468032</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818071</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>77.54037261451921</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>440.9755796648388</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>212.9340539717066</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35974,7 +35974,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>59.99058959552271</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -35983,10 +35983,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,19 +36205,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>376.3054212373386</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,22 +36442,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>171.212305634483</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>205.0040068187899</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36852,7 +36852,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,10 +36916,10 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>568.5897536819714</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36931,7 +36931,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37083,7 +37083,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
@@ -37156,16 +37156,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>508.128623392977</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37387,28 +37387,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>469.7150632237159</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37630,16 +37630,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>433.4611020691852</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37861,13 +37861,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>263.67989750701</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37879,10 +37879,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38098,10 +38098,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L45" t="n">
-        <v>71.3955650623777</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38113,13 +38113,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_12_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_12_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2346784.191616517</v>
+        <v>2348544.721919303</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12383593.4843585</v>
+        <v>12383593.48435851</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283182</v>
       </c>
     </row>
     <row r="9">
@@ -670,16 +670,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>297.6465599307828</v>
+        <v>208.2474868886324</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>136.8917226135565</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -825,19 +825,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>94.9223004850041</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,13 +867,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -901,22 +901,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>12.22040858875045</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987943</v>
       </c>
       <c r="T5" t="n">
-        <v>49.83235651299567</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705011</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1065,10 +1065,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>145.8489934020556</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>196.4017961483599</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>291.0014662643711</v>
+        <v>405.3232974734225</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,13 +1189,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1293,10 +1293,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1308,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>15.53666026283998</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>90.69811547110089</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>152.2372717916099</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1660,7 +1660,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>99.97427419833861</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>120.2043849316218</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417126</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1903,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>185.0663491738896</v>
       </c>
       <c r="Y19" t="n">
-        <v>108.5813113004299</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2320,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710066</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710086</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,10 +2718,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428209</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>31.26260713376574</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,22 +2952,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>41.74133133758761</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3040,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417105</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>28.75188085812011</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569541</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>107.4021082756243</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3666,10 +3666,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>147.6895341487364</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,10 +3717,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>48.4745767553171</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,10 +3903,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>31.26260713376619</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,19 +4137,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4194,7 +4194,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>136.6755965411349</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1842.294639468329</v>
+        <v>1785.600156360221</v>
       </c>
       <c r="C2" t="n">
-        <v>1473.332122527917</v>
+        <v>1416.63763941981</v>
       </c>
       <c r="D2" t="n">
-        <v>1115.066423921167</v>
+        <v>1058.371940813059</v>
       </c>
       <c r="E2" t="n">
-        <v>729.2781713229224</v>
+        <v>672.5836882148151</v>
       </c>
       <c r="F2" t="n">
-        <v>722.3326705737189</v>
+        <v>261.5977834252075</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362819</v>
@@ -4336,10 +4336,10 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>2228.894479532451</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V2" t="n">
-        <v>2228.894479532451</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W2" t="n">
-        <v>2228.894479532451</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X2" t="n">
-        <v>2228.894479532451</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="Y2" t="n">
-        <v>2228.894479532451</v>
+        <v>2172.199996424343</v>
       </c>
     </row>
     <row r="3">
@@ -4403,34 +4403,34 @@
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>482.9033490193026</v>
+        <v>483.0441129489463</v>
       </c>
       <c r="L3" t="n">
-        <v>777.6069060507743</v>
+        <v>1117.223096727985</v>
       </c>
       <c r="M3" t="n">
-        <v>1140.868925009994</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N3" t="n">
-        <v>1528.15405360694</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O3" t="n">
-        <v>1860.224488783102</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>977.1399948936612</v>
+        <v>716.5983551657496</v>
       </c>
       <c r="C4" t="n">
-        <v>977.1399948936612</v>
+        <v>716.5983551657496</v>
       </c>
       <c r="D4" t="n">
-        <v>977.1399948936612</v>
+        <v>716.5983551657496</v>
       </c>
       <c r="E4" t="n">
-        <v>977.1399948936612</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F4" t="n">
-        <v>977.1399948936612</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G4" t="n">
-        <v>977.1399948936612</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>977.1399948936612</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I4" t="n">
-        <v>977.1399948936612</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>1002.60916787878</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>1174.299679627706</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>1449.530858294981</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>1750.112669035317</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
-        <v>2048.981932571481</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>2508.006390496682</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>2365.710580560017</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>2142.732099754752</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1853.61376225859</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>1853.61376225859</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W4" t="n">
-        <v>1564.196592221629</v>
+        <v>1347.028950037537</v>
       </c>
       <c r="X4" t="n">
-        <v>1336.207041323612</v>
+        <v>1119.039399139519</v>
       </c>
       <c r="Y4" t="n">
-        <v>1115.414462180082</v>
+        <v>898.2468199959893</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1201.12525314008</v>
+        <v>1711.405707395433</v>
       </c>
       <c r="C5" t="n">
-        <v>832.1627361996682</v>
+        <v>1342.443190455022</v>
       </c>
       <c r="D5" t="n">
-        <v>473.8970375929177</v>
+        <v>1342.443190455022</v>
       </c>
       <c r="E5" t="n">
-        <v>473.8970375929177</v>
+        <v>956.6549378567772</v>
       </c>
       <c r="F5" t="n">
-        <v>62.91113280331017</v>
+        <v>545.6690330671697</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800311</v>
+        <v>129.9642827914586</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362813</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816079</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723852</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T5" t="n">
-        <v>2512.003614750665</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="U5" t="n">
-        <v>2258.422554014845</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="V5" t="n">
-        <v>1927.359666671274</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="W5" t="n">
-        <v>1574.59101140116</v>
+        <v>2084.871465656513</v>
       </c>
       <c r="X5" t="n">
-        <v>1201.12525314008</v>
+        <v>1711.405707395433</v>
       </c>
       <c r="Y5" t="n">
-        <v>1201.12525314008</v>
+        <v>1711.405707395433</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>590.2049751143493</v>
+        <v>483.0441129489454</v>
       </c>
       <c r="L6" t="n">
-        <v>884.908532145821</v>
+        <v>1117.223096727984</v>
       </c>
       <c r="M6" t="n">
-        <v>1248.170551105041</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N6" t="n">
-        <v>1635.455679701986</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O6" t="n">
-        <v>1967.526114878148</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
-        <v>2214.708848710445</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>643.4886826182743</v>
+        <v>518.2127024906389</v>
       </c>
       <c r="C7" t="n">
-        <v>643.4886826182743</v>
+        <v>349.276519562732</v>
       </c>
       <c r="D7" t="n">
-        <v>493.3720432059386</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E7" t="n">
-        <v>345.4589496235454</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="F7" t="n">
-        <v>198.5690021256351</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J7" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312206</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020477</v>
       </c>
       <c r="L7" t="n">
         <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4746,31 +4746,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T7" t="n">
-        <v>1114.255484944676</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="U7" t="n">
-        <v>825.137147448514</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="V7" t="n">
-        <v>825.137147448514</v>
+        <v>1438.060467399387</v>
       </c>
       <c r="W7" t="n">
-        <v>825.137147448514</v>
+        <v>1148.643297362426</v>
       </c>
       <c r="X7" t="n">
-        <v>825.137147448514</v>
+        <v>920.6537464644088</v>
       </c>
       <c r="Y7" t="n">
-        <v>825.137147448514</v>
+        <v>699.8611673208786</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1500.227517577122</v>
+        <v>2051.040280862505</v>
       </c>
       <c r="C8" t="n">
-        <v>1500.227517577122</v>
+        <v>1682.077763922093</v>
       </c>
       <c r="D8" t="n">
-        <v>1141.961818970371</v>
+        <v>1323.812065315343</v>
       </c>
       <c r="E8" t="n">
-        <v>756.173566372127</v>
+        <v>938.0238127170985</v>
       </c>
       <c r="F8" t="n">
-        <v>345.1876615825194</v>
+        <v>527.037907927491</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800313</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800313</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
         <v>51.24678656800313</v>
@@ -4837,19 +4837,19 @@
         <v>2437.640120926627</v>
       </c>
       <c r="U8" t="n">
-        <v>2184.059060190807</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="V8" t="n">
-        <v>1852.996172847236</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="W8" t="n">
-        <v>1500.227517577122</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="X8" t="n">
-        <v>1500.227517577122</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="Y8" t="n">
-        <v>1500.227517577122</v>
+        <v>2437.640120926627</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>51.24678656800313</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K9" t="n">
-        <v>560.1394111735143</v>
+        <v>614.5430248380219</v>
       </c>
       <c r="L9" t="n">
-        <v>854.8429682049862</v>
+        <v>909.2465818694938</v>
       </c>
       <c r="M9" t="n">
-        <v>1218.104987164206</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1605.390115761151</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O9" t="n">
-        <v>1937.460550937313</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>172.7955294637007</v>
+        <v>370.2996089082458</v>
       </c>
       <c r="C10" t="n">
-        <v>172.7955294637007</v>
+        <v>201.3634259803389</v>
       </c>
       <c r="D10" t="n">
-        <v>172.7955294637007</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="E10" t="n">
-        <v>172.7955294637007</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="F10" t="n">
-        <v>172.7955294637007</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="G10" t="n">
-        <v>172.7955294637007</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I10" t="n">
         <v>51.24678656800313</v>
@@ -4995,19 +4995,19 @@
         <v>1636.446120074498</v>
       </c>
       <c r="U10" t="n">
-        <v>1347.327782578335</v>
+        <v>1544.831862022881</v>
       </c>
       <c r="V10" t="n">
-        <v>1092.643294372449</v>
+        <v>1290.147373816994</v>
       </c>
       <c r="W10" t="n">
-        <v>803.2261243354878</v>
+        <v>1000.730203780033</v>
       </c>
       <c r="X10" t="n">
-        <v>575.2365734374705</v>
+        <v>772.7406528820156</v>
       </c>
       <c r="Y10" t="n">
-        <v>354.4439942939404</v>
+        <v>551.9480737384855</v>
       </c>
     </row>
     <row r="11">
@@ -5017,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
@@ -5068,25 +5068,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>916.3099000622266</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1546.740494934014</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5272,16 +5272,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,28 +5290,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>762.547769317909</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>762.547769317909</v>
       </c>
       <c r="D16" t="n">
-        <v>194.8007783998291</v>
+        <v>612.4311299055732</v>
       </c>
       <c r="E16" t="n">
-        <v>194.8007783998291</v>
+        <v>464.5180363231801</v>
       </c>
       <c r="F16" t="n">
-        <v>194.8007783998291</v>
+        <v>464.5180363231801</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>297.3219370380601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5460,28 +5460,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="17">
@@ -5494,13 +5494,13 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5509,16 +5509,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,28 +5527,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.8686257536381</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704551</v>
+        <v>1688.043910473548</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806534</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y19" t="n">
-        <v>1056.517090583878</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5740,22 +5740,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,37 +5764,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5977,22 +5977,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,40 +6001,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6141,40 +6141,40 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
         <v>2035.268256189238</v>
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6214,22 +6214,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332388</v>
@@ -6241,37 +6241,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="27">
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,22 +6299,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
         <v>2001.151557821488</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>951.777212765616</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>782.8410298377091</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>632.7243904253734</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2415.384692536053</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2415.384692536053</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2415.384692536053</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>2126.309465880251</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1871.624977674364</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6451,40 +6451,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="32">
@@ -6688,22 +6688,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,25 +6712,25 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466572</v>
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,16 +6949,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,16 +7186,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>802.9288273958734</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C40" t="n">
-        <v>633.9926444679666</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1722.776592304621</v>
+        <v>1639.421634909942</v>
       </c>
       <c r="W40" t="n">
-        <v>1433.359422267661</v>
+        <v>1350.004464872981</v>
       </c>
       <c r="X40" t="n">
-        <v>1205.369871369643</v>
+        <v>1122.014913974964</v>
       </c>
       <c r="Y40" t="n">
-        <v>984.5772922261132</v>
+        <v>901.2223348314336</v>
       </c>
     </row>
     <row r="41">
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,16 +7423,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7487,22 +7487,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2415.384692536053</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="44">
@@ -7636,37 +7636,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852256</v>
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>697.5276345711974</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1617.375399479945</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1327.958229442984</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1099.968678544967</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>879.1760994014371</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>186.4490126143851</v>
+        <v>60.50016306149519</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>342.9044714621884</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>168.7434581780638</v>
+        <v>186.5911984019029</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>342.9044714621888</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8315,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154984</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3273467878341</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,10 +8549,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>265.0304328515136</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>20.93778120154985</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>15.00954930701795</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,10 +23466,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>65.54986409393024</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>20.09032791460209</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>40.64330621514753</v>
       </c>
       <c r="Y19" t="n">
-        <v>110.0033420516649</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24606,10 +24606,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>35.11263957635595</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>125.5054897610402</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>110.0033420516639</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25554,10 +25554,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9259388694759139</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,10 +25605,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>203.6630665685109</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25791,10 +25791,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>186.1428431935221</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>115.4620467826931</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>835491.4104457165</v>
+        <v>835491.4104457163</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>814465.9272701541</v>
+        <v>814465.927270154</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>814465.927270154</v>
+        <v>814465.9272701541</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>814465.9272701541</v>
+        <v>814465.927270154</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>814465.9272701541</v>
+        <v>814465.927270154</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>814465.927270154</v>
+        <v>814465.9272701541</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>814465.9272701541</v>
+        <v>814465.927270154</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>814465.927270154</v>
+        <v>814465.9272701541</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>814465.9272701541</v>
+        <v>814465.927270154</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>615781.3273982127</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982129</v>
+        <v>615781.3273982132</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982132</v>
+        <v>615781.327398213</v>
       </c>
       <c r="E2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="F2" t="n">
+        <v>605359.9497675046</v>
+      </c>
+      <c r="G2" t="n">
+        <v>605359.9497675044</v>
+      </c>
+      <c r="H2" t="n">
+        <v>605359.9497675044</v>
+      </c>
+      <c r="I2" t="n">
+        <v>605359.9497675045</v>
+      </c>
+      <c r="J2" t="n">
         <v>605359.9497675042</v>
       </c>
-      <c r="F2" t="n">
+      <c r="K2" t="n">
+        <v>605359.9497675046</v>
+      </c>
+      <c r="L2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="M2" t="n">
         <v>605359.9497675041</v>
       </c>
-      <c r="G2" t="n">
+      <c r="N2" t="n">
         <v>605359.9497675042</v>
       </c>
-      <c r="H2" t="n">
+      <c r="O2" t="n">
         <v>605359.9497675042</v>
       </c>
-      <c r="I2" t="n">
+      <c r="P2" t="n">
         <v>605359.9497675042</v>
-      </c>
-      <c r="J2" t="n">
-        <v>605359.9497675041</v>
-      </c>
-      <c r="K2" t="n">
-        <v>605359.9497675044</v>
-      </c>
-      <c r="L2" t="n">
-        <v>605359.9497675044</v>
-      </c>
-      <c r="M2" t="n">
-        <v>605359.9497675044</v>
-      </c>
-      <c r="N2" t="n">
-        <v>605359.9497675044</v>
-      </c>
-      <c r="O2" t="n">
-        <v>605359.9497675046</v>
-      </c>
-      <c r="P2" t="n">
-        <v>605359.9497675045</v>
       </c>
     </row>
     <row r="3">
@@ -26368,16 +26368,16 @@
         <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3.539624622135307e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245458</v>
+        <v>507485.4416245456</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.574418839027077e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>167605.1778099826</v>
@@ -26420,37 +26420,37 @@
         <v>134318.0002618637</v>
       </c>
       <c r="C4" t="n">
-        <v>134318.0002618637</v>
+        <v>134318.0002618636</v>
       </c>
       <c r="D4" t="n">
         <v>134318.0002618637</v>
       </c>
       <c r="E4" t="n">
-        <v>8117.312426732044</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="F4" t="n">
-        <v>8117.312426731975</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="G4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731924</v>
       </c>
       <c r="H4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="I4" t="n">
-        <v>8117.312426732016</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="J4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731926</v>
       </c>
       <c r="K4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="L4" t="n">
-        <v>8117.312426732015</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="M4" t="n">
-        <v>8117.312426732028</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="N4" t="n">
         <v>8117.312426731974</v>
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.77243984475</v>
       </c>
       <c r="D5" t="n">
         <v>92937.77243984473</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-726226.2288794155</v>
+        <v>-726226.2288794153</v>
       </c>
       <c r="C6" t="n">
-        <v>388525.5546965044</v>
+        <v>388525.5546965045</v>
       </c>
       <c r="D6" t="n">
-        <v>388525.5546965048</v>
+        <v>388525.5546965046</v>
       </c>
       <c r="E6" t="n">
-        <v>-11712.71336203764</v>
+        <v>-11400.07203311622</v>
       </c>
       <c r="F6" t="n">
-        <v>495772.7282625081</v>
+        <v>496085.3695914296</v>
       </c>
       <c r="G6" t="n">
-        <v>495772.7282625085</v>
+        <v>496085.3695914296</v>
       </c>
       <c r="H6" t="n">
-        <v>495772.7282625082</v>
+        <v>496085.3695914296</v>
       </c>
       <c r="I6" t="n">
-        <v>495772.7282625082</v>
+        <v>496085.3695914297</v>
       </c>
       <c r="J6" t="n">
-        <v>328167.5504525255</v>
+        <v>328480.1917814469</v>
       </c>
       <c r="K6" t="n">
-        <v>495772.7282625083</v>
+        <v>496085.3695914298</v>
       </c>
       <c r="L6" t="n">
-        <v>495772.7282625083</v>
+        <v>496085.3695914295</v>
       </c>
       <c r="M6" t="n">
-        <v>363165.4345335816</v>
+        <v>363478.0758625027</v>
       </c>
       <c r="N6" t="n">
-        <v>495772.7282625083</v>
+        <v>496085.3695914295</v>
       </c>
       <c r="O6" t="n">
-        <v>495772.7282625086</v>
+        <v>496085.3695914295</v>
       </c>
       <c r="P6" t="n">
-        <v>495772.7282625085</v>
+        <v>496085.3695914295</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>4.266319098766464e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4.266319098766464e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.266319098766464e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26718,7 +26718,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>4.266319098766464e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26740,7 +26740,7 @@
         <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175396</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175394</v>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000392</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000391</v>
@@ -26801,19 +26801,19 @@
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>4.266319098766464e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26928,7 +26928,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26962,16 +26962,16 @@
         <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241345</v>
+        <v>433.9106082241343</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.266319098766464e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27165,7 +27165,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27390,16 +27390,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>113.9011428421712</v>
+        <v>203.3002158843216</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>42.94025756838076</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27545,19 +27545,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>51.51166216156507</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,13 +27587,13 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27621,22 +27621,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>288.7981439736549</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>156.8258284672381</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27776,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27785,10 +27785,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>20.45760664274854</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551288</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>55.73584717546808</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>120.5462365085829</v>
+        <v>6.224405299531441</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247044</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,13 +27909,13 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28013,10 +28013,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28028,10 +28028,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>131.7148488922889</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28067,7 +28067,7 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>195.5290386500997</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28104,7 +28104,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.502430364027909e-12</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28575,7 +28575,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>-7.386539945879012e-13</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -29040,7 +29040,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -29277,7 +29277,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>-1.080024958355352e-12</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29760,7 +29760,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -30036,7 +30036,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181061</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.4562495533618</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491901</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857145</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767382</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342227</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166597</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147053</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235313</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.567854187451</v>
       </c>
       <c r="T5" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,31 +31357,31 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H6" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436497</v>
       </c>
       <c r="J6" t="n">
-        <v>189.8178475575841</v>
+        <v>189.8178475575842</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>324.428935217844</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.065366204059</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762074</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378626</v>
@@ -31393,10 +31393,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997904</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000176</v>
       </c>
       <c r="U6" t="n">
         <v>0.1321789941675764</v>
@@ -31439,22 +31439,22 @@
         <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>14.97566335231072</v>
+        <v>14.97566335231073</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J7" t="n">
-        <v>119.0856174753787</v>
+        <v>119.0856174753788</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227909</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N7" t="n">
         <v>257.7559726067959</v>
@@ -31463,22 +31463,22 @@
         <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
-        <v>203.7180217169137</v>
+        <v>203.7180217169138</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.0437987097484</v>
+        <v>141.0437987097485</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.3541376752348</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069564</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024989</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>583.1096135868572</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32074,13 +32074,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473073</v>
@@ -32092,10 +32092,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>465.7451325200306</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,19 +33265,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,19 +33502,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,19 +33739,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,19 +33976,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,19 +34213,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,19 +34450,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>173.8200325543357</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>373.0365088578699</v>
+        <v>247.08765930498</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820406</v>
@@ -34795,13 +34795,13 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
         <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225038</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.806230106751</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376318</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949729</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402558</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939913</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091748</v>
       </c>
       <c r="K6" t="n">
-        <v>355.3309544215487</v>
+        <v>373.1786946453879</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>640.5848321000392</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820407</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928741</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>335.4246819961232</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235324</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870598</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
@@ -35102,7 +35102,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N7" t="n">
         <v>301.8881449860245</v>
@@ -35111,10 +35111,10 @@
         <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818073</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805409</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560635</v>
+        <v>379.914843031319</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378503</v>
@@ -35269,10 +35269,10 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>514.709961975046</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>440.9755796648388</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.3288951674331</v>
@@ -35740,10 +35740,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902408</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,16 +36205,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,16 +36442,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,16 +36679,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>334.4034204366973</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,16 +36916,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,16 +37153,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,16 +37390,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,16 +37627,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,16 +37864,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>35.97859357997668</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
